--- a/test_cases/trench_sed_model/fixed_output/fixed_out.xlsx
+++ b/test_cases/trench_sed_model/fixed_output/fixed_out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/fixed_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC034E0-203A-F749-BE89-1CB824808F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90295AAE-937D-0E41-953B-8528E14008CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{725C7163-3F53-304E-91D8-0F93AF696550}"/>
+    <workbookView xWindow="25720" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{725C7163-3F53-304E-91D8-0F93AF696550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="2">
   <si>
     <t>L2 norm:</t>
   </si>
@@ -411,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8717AB-231C-5248-9034-069F10AAEF4C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.1</v>
       </c>
@@ -453,8 +453,11 @@
       <c r="K1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +485,11 @@
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5.4349612276588501E-2</v>
       </c>
@@ -517,8 +523,11 @@
       <c r="K3" s="1">
         <v>3.09816586753149E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1">
+        <v>3.09817589138358E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,8 +559,11 @@
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>358</v>
       </c>
@@ -585,13 +597,16 @@
       <c r="K5" s="1">
         <v>4381.0954709053003</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="1">
+        <v>47910.581159114801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:H7" si="0">16/(16*5*A1)</f>
         <v>2</v>
@@ -637,7 +652,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f>A3</f>
         <v>5.4349612276588501E-2</v>
@@ -663,7 +678,7 @@
         <v>3.09816586753149E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <f>B3</f>
         <v>2.3873705997271299E-2</v>
@@ -686,7 +701,7 @@
         <v>3.09816586753149E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
       <c r="H10" s="1"/>

--- a/test_cases/trench_sed_model/fixed_output/fixed_out.xlsx
+++ b/test_cases/trench_sed_model/fixed_output/fixed_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/fixed_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90295AAE-937D-0E41-953B-8528E14008CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4EDA0-7814-5743-BC5C-842AB6130CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{725C7163-3F53-304E-91D8-0F93AF696550}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{725C7163-3F53-304E-91D8-0F93AF696550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,12 +644,16 @@
         <v>0.25</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:K7" si="1">16/(16*5*J1)</f>
+        <f t="shared" ref="J7:L7" si="1">16/(16*5*J1)</f>
         <v>0.2</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>0.1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
